--- a/biology/Zoologie/Dunkleosteus/Dunkleosteus.xlsx
+++ b/biology/Zoologie/Dunkleosteus/Dunkleosteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dunkleosteus (littéralement, « os de Dunkle (en) ») est un genre éteint de grands Placodermes arthrodires ayant vécu durant le Dévonien supérieur (382-358 millions d'années). De nombreux fossiles ont été découverts en Amérique du Nord, en Pologne, en Belgique et au Maroc.
-Le genre comprend une dizaine d'espèces, dont certaines figurent parmi les plus grands Placodermes connus. La taille de D. terrelli a longtemps été surestimée avec une taille maximale estimée à 9 m[1] de long pour un poids de 4 t
-[2],[3]. Depuis 2023, une étude sérieuse revue par les paires est revenu à des estimations plus réalistes de l'ordre de 3 à 4 mètres, pour une masse allant de 1,2 t à 1,8 t[4]. Cette étude menée par Engelman, met en lumière les méthodes peu fiable qui ont mené à des surestimations de l'ordre de 7 à 9 mètres, elles-mêmes amplifiées par des phénomènes de surenchères médiatiques qui ont fini par s'imposer dans les médias populaires.
+Le genre comprend une dizaine d'espèces, dont certaines figurent parmi les plus grands Placodermes connus. La taille de D. terrelli a longtemps été surestimée avec une taille maximale estimée à 9 m de long pour un poids de 4 t
+,. Depuis 2023, une étude sérieuse revue par les paires est revenu à des estimations plus réalistes de l'ordre de 3 à 4 mètres, pour une masse allant de 1,2 t à 1,8 t. Cette étude menée par Engelman, met en lumière les méthodes peu fiable qui ont mené à des surestimations de l'ordre de 7 à 9 mètres, elles-mêmes amplifiées par des phénomènes de surenchères médiatiques qui ont fini par s'imposer dans les médias populaires.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Crâne de Dunkleosteus terrelli.
@@ -556,11 +570,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Historique
-Les premiers restes de Dunkleosteus sont découverts par le géologue Jay Terrell en 1867, près du lac Érié, au sein de la ville de Sheffield Lake, (Ohio)[5].  Ils se compose d'un crâne partiel et d'une plaque de protection thoracique dorsale, détruite plus tard dans un incendie à Elyria. Après la découverte de plus de fossiles de l'animal, le géologue John Strong Newberry donné le nom de Dinichthys terrelli en 1873, en l'honneur du découvreur[6].
-Le nom de genre Dunkleosteus sera nommé en 1956 en l'honneur de David Dunkle (en) (1911-1982), ancien conservateur de la paléontologie des vertébrés au Cleveland Museum of Natural History. L'espèce type D. terrelli a été initialement décrite en 1873 comme une espèce de Dinichthys, son épithète spécifique choisie en l'honneur de Jay Terrell, le découvreur du fossile[7].
-Liste d'espèces
-Selon Paleobiology Database                   (25 septembre 2022)[8] :
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers restes de Dunkleosteus sont découverts par le géologue Jay Terrell en 1867, près du lac Érié, au sein de la ville de Sheffield Lake, (Ohio).  Ils se compose d'un crâne partiel et d'une plaque de protection thoracique dorsale, détruite plus tard dans un incendie à Elyria. Après la découverte de plus de fossiles de l'animal, le géologue John Strong Newberry donné le nom de Dinichthys terrelli en 1873, en l'honneur du découvreur.
+Le nom de genre Dunkleosteus sera nommé en 1956 en l'honneur de David Dunkle (en) (1911-1982), ancien conservateur de la paléontologie des vertébrés au Cleveland Museum of Natural History. L'espèce type D. terrelli a été initialement décrite en 1873 comme une espèce de Dinichthys, son épithète spécifique choisie en l'honneur de Jay Terrell, le découvreur du fossile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dunkleosteus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dunkleosteus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (25 septembre 2022) :
 † Dunkleosteus amblyodoratus Carr &amp; Hlavin, 2010
 † Dunkleosteus belgicus Newberry, 1873
 † Dunkleosteus denisoni Kulczycki, 1957
@@ -569,8 +623,7 @@
 † Dunkleosteus missouriensis Branson, 1914
 † Dunkleosteus newberryi Clarke, 1885
 † Dunkleosteus raveri Carr &amp; Hlavin, 2010
-† Dunkleosteus terrelli Newberry, 1873 (type, originellement classé dans Dinichthys)
-Publication originale</t>
+† Dunkleosteus terrelli Newberry, 1873 (type, originellement classé dans Dinichthys)</t>
         </is>
       </c>
     </row>
